--- a/Lab 1/Lab1.3/Construct Requirements Linkage Traceability Matrix.xlsx
+++ b/Lab 1/Lab1.3/Construct Requirements Linkage Traceability Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\SE357-Pratice-class\Lab 1\Lab1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{575A6469-D79F-42BD-9802-0E69D37F72DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85318DB-DDC1-4A02-92B4-FDC43ABEBFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{95A5E9AE-DB30-4210-9741-F821B2E1FB6F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Requirement</t>
   </si>
@@ -68,12 +68,6 @@
     <t>TC1: Add, edit, delete items</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>R2: Schedule appointments</t>
   </si>
   <si>
@@ -96,12 +90,6 @@
   </si>
   <si>
     <t>TC3: Produce, export, print reports</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Issue 1: Report format is incorrect</t>
   </si>
   <si>
     <t>R4: Secure data</t>
@@ -123,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,17 +120,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF1B1B1B"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,16 +169,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,124 +522,117 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="1" max="1" width="31" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
